--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H2">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I2">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J2">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>11.059537773488</v>
+        <v>3.127696371239999</v>
       </c>
       <c r="R2">
-        <v>99.53583996139199</v>
+        <v>28.14926734116</v>
       </c>
       <c r="S2">
-        <v>0.0003267965132232459</v>
+        <v>0.0001241256807734035</v>
       </c>
       <c r="T2">
-        <v>0.0003267965132232459</v>
+        <v>0.0001241256807734035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H3">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>360.8915679392107</v>
+        <v>370.5921873657879</v>
       </c>
       <c r="R3">
-        <v>3248.024111452896</v>
+        <v>3335.329686292092</v>
       </c>
       <c r="S3">
-        <v>0.01066392723364319</v>
+        <v>0.01470731237503277</v>
       </c>
       <c r="T3">
-        <v>0.01066392723364319</v>
+        <v>0.01470731237503277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H4">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>124.9994789238747</v>
+        <v>125.150734060654</v>
       </c>
       <c r="R4">
-        <v>1124.995310314872</v>
+        <v>1126.356606545886</v>
       </c>
       <c r="S4">
-        <v>0.003693589615017122</v>
+        <v>0.004966728934244698</v>
       </c>
       <c r="T4">
-        <v>0.003693589615017122</v>
+        <v>0.004966728934244699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H5">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I5">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J5">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.98515654536</v>
+        <v>0.840959733181</v>
       </c>
       <c r="R5">
-        <v>8.86640890824</v>
+        <v>7.568637598629001</v>
       </c>
       <c r="S5">
-        <v>2.911023323004303E-05</v>
+        <v>3.337430715588524E-05</v>
       </c>
       <c r="T5">
-        <v>2.911023323004304E-05</v>
+        <v>3.337430715588524E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>543.064652</v>
       </c>
       <c r="I6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>489.0032899796027</v>
+        <v>134.6727928339733</v>
       </c>
       <c r="R6">
-        <v>4401.029609816424</v>
+        <v>1212.05513550576</v>
       </c>
       <c r="S6">
-        <v>0.01444948002285544</v>
+        <v>0.005344621123036041</v>
       </c>
       <c r="T6">
-        <v>0.01444948002285544</v>
+        <v>0.005344621123036043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>543.064652</v>
       </c>
       <c r="I7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
         <v>15957.01083197379</v>
@@ -883,10 +883,10 @@
         <v>143613.0974877641</v>
       </c>
       <c r="S7">
-        <v>0.4715111615112257</v>
+        <v>0.6332695369154604</v>
       </c>
       <c r="T7">
-        <v>0.4715111615112257</v>
+        <v>0.6332695369154605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>543.064652</v>
       </c>
       <c r="I8">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J8">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>5526.917823459165</v>
+        <v>5388.7580124947</v>
       </c>
       <c r="R8">
-        <v>49742.26041113248</v>
+        <v>48498.8221124523</v>
       </c>
       <c r="S8">
-        <v>0.163314010998511</v>
+        <v>0.2138581171032447</v>
       </c>
       <c r="T8">
-        <v>0.163314010998511</v>
+        <v>0.2138581171032448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>543.064652</v>
       </c>
       <c r="I9">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J9">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>43.55921573692001</v>
+        <v>36.21016316347156</v>
       </c>
       <c r="R9">
-        <v>392.03294163228</v>
+        <v>325.8914684712441</v>
       </c>
       <c r="S9">
-        <v>0.001287124300591372</v>
+        <v>0.001437035639044465</v>
       </c>
       <c r="T9">
-        <v>0.001287124300591372</v>
+        <v>0.001437035639044465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H10">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>81.26346279552199</v>
+        <v>19.38592145812</v>
       </c>
       <c r="R10">
-        <v>731.3711651596979</v>
+        <v>174.47329312308</v>
       </c>
       <c r="S10">
-        <v>0.002401241067930096</v>
+        <v>0.0007693491991535239</v>
       </c>
       <c r="T10">
-        <v>0.002401241067930096</v>
+        <v>0.000769349199153524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H11">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I11">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J11">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>2651.765300241503</v>
+        <v>2296.984804320311</v>
       </c>
       <c r="R11">
-        <v>23865.88770217352</v>
+        <v>20672.86323888279</v>
       </c>
       <c r="S11">
-        <v>0.07835658883345983</v>
+        <v>0.0911580820901057</v>
       </c>
       <c r="T11">
-        <v>0.07835658883345985</v>
+        <v>0.0911580820901057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H12">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I12">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J12">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>918.4733316197437</v>
+        <v>775.7026299723686</v>
       </c>
       <c r="R12">
-        <v>8266.259984577693</v>
+        <v>6981.323669751318</v>
       </c>
       <c r="S12">
-        <v>0.02713982161003159</v>
+        <v>0.03078451537316808</v>
       </c>
       <c r="T12">
-        <v>0.0271398216100316</v>
+        <v>0.03078451537316808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H13">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I13">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J13">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>7.238750290590001</v>
+        <v>5.212391933819668</v>
       </c>
       <c r="R13">
-        <v>65.14875261531</v>
+        <v>46.91152740437701</v>
       </c>
       <c r="S13">
-        <v>0.0002138966748438076</v>
+        <v>0.0002068588572702978</v>
       </c>
       <c r="T13">
-        <v>0.0002138966748438076</v>
+        <v>0.0002068588572702979</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H14">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I14">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J14">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N14">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q14">
-        <v>170.3368218463113</v>
+        <v>0.5268161790266666</v>
       </c>
       <c r="R14">
-        <v>1533.031396616802</v>
+        <v>4.741345611239999</v>
       </c>
       <c r="S14">
-        <v>0.005033255511486695</v>
+        <v>2.090721384128577E-05</v>
       </c>
       <c r="T14">
-        <v>0.005033255511486695</v>
+        <v>2.090721384128578E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H15">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I15">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J15">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
         <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q15">
-        <v>5558.380826842608</v>
+        <v>62.4210079726431</v>
       </c>
       <c r="R15">
-        <v>50025.42744158347</v>
+        <v>561.7890717537879</v>
       </c>
       <c r="S15">
-        <v>0.1642437062544816</v>
+        <v>0.002477238577379747</v>
       </c>
       <c r="T15">
-        <v>0.1642437062544817</v>
+        <v>0.002477238577379747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H16">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I16">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J16">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N16">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q16">
-        <v>1925.217347091951</v>
+        <v>21.07986955718377</v>
       </c>
       <c r="R16">
-        <v>17326.95612382756</v>
+        <v>189.718826014654</v>
       </c>
       <c r="S16">
-        <v>0.05688793954253406</v>
+        <v>0.0008365751814849684</v>
       </c>
       <c r="T16">
-        <v>0.05688793954253406</v>
+        <v>0.0008365751814849686</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H17">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I17">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J17">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N17">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q17">
-        <v>15.17318701691</v>
+        <v>0.1416477626867778</v>
       </c>
       <c r="R17">
-        <v>136.55868315219</v>
+        <v>1.274829864181</v>
       </c>
       <c r="S17">
-        <v>0.0004483500769351382</v>
+        <v>5.621429603972468E-06</v>
       </c>
       <c r="T17">
-        <v>0.0004483500769351382</v>
+        <v>5.621429603972469E-06</v>
       </c>
     </row>
   </sheetData>
